--- a/routes.xlsx
+++ b/routes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -231,14 +231,24 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>通過時間</t>
+    <rPh sb="0" eb="2">
+      <t>ツウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="182" formatCode="#,##0.0_ "/>
-    <numFmt numFmtId="183" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
+    <numFmt numFmtId="176" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -282,8 +292,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -564,22 +574,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="1023" width="15"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="1023" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -595,8 +604,11 @@
       <c r="E1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -613,8 +625,11 @@
         <f>(D2/(D$19*1000/3600)+D$20)/60</f>
         <v>14.318747999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -631,8 +646,12 @@
         <f t="shared" ref="E3:E16" si="0">(D3/(D$19*1000/3600)+D$20)/60</f>
         <v>3.6287093333333331</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F3" s="2">
+        <f>F2+E2</f>
+        <v>14.318747999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -649,8 +668,12 @@
         <f t="shared" si="0"/>
         <v>4.3245346666666666</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F17" si="1">F3+E3</f>
+        <v>17.947457333333332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -667,8 +690,12 @@
         <f t="shared" si="0"/>
         <v>2.6048346666666666</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>22.271991999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -685,8 +712,12 @@
         <f t="shared" si="0"/>
         <v>3.2756546666666666</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>24.876826666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -703,8 +734,12 @@
         <f t="shared" si="0"/>
         <v>3.0404306666666665</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>28.152481333333331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -721,8 +756,12 @@
         <f t="shared" si="0"/>
         <v>8.0915800000000004</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>31.192911999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -739,8 +778,12 @@
         <f t="shared" si="0"/>
         <v>2.5719746666666667</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>39.284492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -757,8 +800,12 @@
         <f t="shared" si="0"/>
         <v>3.5862639999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>41.85646666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -775,8 +822,12 @@
         <f t="shared" si="0"/>
         <v>5.4525106666666669</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>45.442730666666669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -793,8 +844,12 @@
         <f t="shared" si="0"/>
         <v>2.3754746666666668</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>50.895241333333338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -811,8 +866,12 @@
         <f t="shared" si="0"/>
         <v>3.78566</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>53.270716000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -829,8 +888,12 @@
         <f t="shared" si="0"/>
         <v>3.8797600000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>57.056376000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -847,8 +910,12 @@
         <f t="shared" si="0"/>
         <v>3.2898693333333333</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>60.936136000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>99</v>
       </c>
@@ -865,8 +932,12 @@
         <f t="shared" si="0"/>
         <v>5.1201919999999994</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="2">
+        <f t="shared" si="1"/>
+        <v>64.226005333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D17" s="2">
         <f>SUM(D2:D16)</f>
         <v>40759.648000000001</v>
@@ -875,8 +946,12 @@
         <f>SUM(E2:E16)</f>
         <v>69.346197333333336</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F17" s="2">
+        <f t="shared" si="1"/>
+        <v>69.346197333333336</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
@@ -884,7 +959,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>33</v>
       </c>
@@ -907,19 +982,20 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="1023" width="15"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="1023" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -935,8 +1011,11 @@
       <c r="E1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -953,9 +1032,11 @@
         <f>(D2/(D$19*1000/3600)+D$20)/60</f>
         <v>19.047369333333332</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -972,8 +1053,12 @@
         <f t="shared" ref="E3:E16" si="0">(D3/(D$19*1000/3600)+D$20)/60</f>
         <v>2.6048346666666666</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F3" s="2">
+        <f>F2+E2</f>
+        <v>19.047369333333332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -990,8 +1075,12 @@
         <f t="shared" si="0"/>
         <v>2.4300093333333335</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F17" si="1">F3+E3</f>
+        <v>21.652203999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1008,8 +1097,12 @@
         <f t="shared" si="0"/>
         <v>3.0404306666666665</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>24.082213333333332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1026,8 +1119,12 @@
         <f t="shared" si="0"/>
         <v>3.3392013333333335</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>27.122643999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1044,8 +1141,12 @@
         <f t="shared" si="0"/>
         <v>3.6287093333333331</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>30.461845333333329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1062,8 +1163,12 @@
         <f t="shared" si="0"/>
         <v>11.471869333333332</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>34.090554666666662</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1080,8 +1185,12 @@
         <f t="shared" si="0"/>
         <v>2.5719746666666667</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>45.562423999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1098,8 +1207,12 @@
         <f t="shared" si="0"/>
         <v>3.5862639999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>48.134398666666662</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1116,8 +1229,12 @@
         <f t="shared" si="0"/>
         <v>5.4525106666666669</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>51.720662666666662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1134,8 +1251,12 @@
         <f t="shared" si="0"/>
         <v>2.3754746666666668</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>57.173173333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1152,8 +1273,12 @@
         <f t="shared" si="0"/>
         <v>3.78566</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>59.548648</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1170,8 +1295,12 @@
         <f t="shared" si="0"/>
         <v>3.8797600000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>63.334308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1188,8 +1317,12 @@
         <f t="shared" si="0"/>
         <v>3.2898693333333333</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>67.214067999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>99</v>
       </c>
@@ -1206,8 +1339,12 @@
         <f t="shared" si="0"/>
         <v>5.1201919999999994</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="2">
+        <f t="shared" si="1"/>
+        <v>70.503937333333326</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D17" s="3">
         <f>SUM(D2:D16)</f>
         <v>45468.097000000002</v>
@@ -1216,8 +1353,12 @@
         <f>SUM(E2:E16)</f>
         <v>75.624129333333329</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F17" s="2">
+        <f t="shared" si="1"/>
+        <v>75.624129333333329</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
@@ -1225,7 +1366,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1244,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1256,10 +1397,10 @@
     <col min="2" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="1020" width="15"/>
+    <col min="7" max="1020" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1275,8 +1416,11 @@
       <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1290,11 +1434,14 @@
         <v>3989.605</v>
       </c>
       <c r="E2" s="2">
-        <f>(D2/(D$19*1000/3600)+D$20)/60</f>
+        <f t="shared" ref="E2:E16" si="0">(D2/(D$19*1000/3600)+D$20)/60</f>
         <v>6.3194733333333337</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1308,11 +1455,15 @@
         <v>3038.77</v>
       </c>
       <c r="E3" s="2">
-        <f>(D3/(D$19*1000/3600)+D$20)/60</f>
+        <f t="shared" si="0"/>
         <v>5.0516933333333327</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="2">
+        <f>F2+E2</f>
+        <v>6.3194733333333337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1326,11 +1477,15 @@
         <v>1347.7449999999999</v>
       </c>
       <c r="E4" s="2">
-        <f>(D4/(D$19*1000/3600)+D$20)/60</f>
+        <f t="shared" si="0"/>
         <v>2.796993333333333</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F17" si="1">F3+E3</f>
+        <v>11.371166666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1344,11 +1499,15 @@
         <v>1017.9109999999999</v>
       </c>
       <c r="E5" s="2">
-        <f>(D5/(D$19*1000/3600)+D$20)/60</f>
+        <f t="shared" si="0"/>
         <v>2.3572146666666667</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>14.16816</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1362,11 +1521,15 @@
         <v>3483.44</v>
       </c>
       <c r="E6" s="2">
-        <f>(D6/(D$19*1000/3600)+D$20)/60</f>
+        <f t="shared" si="0"/>
         <v>5.6445866666666671</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>16.525374666666668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1380,11 +1543,15 @@
         <v>1794.992</v>
       </c>
       <c r="E7" s="2">
-        <f>(D7/(D$19*1000/3600)+D$20)/60</f>
+        <f t="shared" si="0"/>
         <v>3.3933226666666667</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>22.169961333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1398,11 +1565,15 @@
         <v>2690.498</v>
       </c>
       <c r="E8" s="2">
-        <f>(D8/(D$19*1000/3600)+D$20)/60</f>
+        <f t="shared" si="0"/>
         <v>4.5873306666666673</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>25.563283999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1416,11 +1587,15 @@
         <v>1989.64</v>
       </c>
       <c r="E9" s="2">
-        <f>(D9/(D$19*1000/3600)+D$20)/60</f>
+        <f t="shared" si="0"/>
         <v>3.6528533333333333</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>30.150614666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1434,11 +1609,15 @@
         <v>1935.079</v>
       </c>
       <c r="E10" s="2">
-        <f>(D10/(D$19*1000/3600)+D$20)/60</f>
+        <f t="shared" si="0"/>
         <v>3.5801053333333335</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>33.803468000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1452,11 +1631,15 @@
         <v>1415.472</v>
       </c>
       <c r="E11" s="2">
-        <f>(D11/(D$19*1000/3600)+D$20)/60</f>
+        <f t="shared" si="0"/>
         <v>2.8872959999999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>37.383573333333338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1470,11 +1653,15 @@
         <v>2575.076</v>
       </c>
       <c r="E12" s="2">
-        <f>(D12/(D$19*1000/3600)+D$20)/60</f>
+        <f t="shared" si="0"/>
         <v>4.4334346666666669</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>40.270869333333337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1488,11 +1675,15 @@
         <v>4362.732</v>
       </c>
       <c r="E13" s="2">
-        <f>(D13/(D$19*1000/3600)+D$20)/60</f>
+        <f t="shared" si="0"/>
         <v>6.8169759999999995</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>44.704304000000008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1506,11 +1697,15 @@
         <v>2786.04</v>
       </c>
       <c r="E14" s="2">
-        <f>(D14/(D$19*1000/3600)+D$20)/60</f>
+        <f t="shared" si="0"/>
         <v>4.7147199999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>51.521280000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1524,11 +1719,15 @@
         <v>1477.27</v>
       </c>
       <c r="E15" s="2">
-        <f>(D15/(D$19*1000/3600)+D$20)/60</f>
+        <f t="shared" si="0"/>
         <v>2.9696933333333333</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>56.236000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>99</v>
       </c>
@@ -1542,21 +1741,29 @@
         <v>3787.6379999999999</v>
       </c>
       <c r="E16" s="2">
-        <f>(D16/(D$19*1000/3600)+D$20)/60</f>
+        <f t="shared" si="0"/>
         <v>6.0501839999999998</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="2">
+        <f t="shared" si="1"/>
+        <v>59.205693333333336</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D17" s="2">
         <f>SUM(D2:D16)</f>
         <v>37691.908000000003</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" ref="E17" si="0">SUM(E2:E16)</f>
+        <f t="shared" ref="E17" si="2">SUM(E2:E16)</f>
         <v>65.255877333333331</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="2">
+        <f t="shared" si="1"/>
+        <v>65.255877333333331</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
@@ -1564,7 +1771,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>33</v>
       </c>

--- a/routes.xlsx
+++ b/routes.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\in-admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\taka-gis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11550"/>
   </bookViews>
   <sheets>
-    <sheet name="bus-route-n2" sheetId="1" r:id="rId1"/>
-    <sheet name="bus-route-north" sheetId="2" r:id="rId2"/>
-    <sheet name="bus-route-south" sheetId="3" r:id="rId3"/>
+    <sheet name="ROUTES" sheetId="4" r:id="rId1"/>
+    <sheet name="bus-route-n2" sheetId="1" r:id="rId2"/>
+    <sheet name="bus-route-north" sheetId="2" r:id="rId3"/>
+    <sheet name="bus-route-south" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -241,16 +242,140 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>鳥羽</t>
+  </si>
+  <si>
+    <t>清水</t>
+  </si>
+  <si>
+    <t>轟</t>
+  </si>
+  <si>
+    <t>診療所</t>
+  </si>
+  <si>
+    <t>熊野部</t>
+  </si>
+  <si>
+    <t>西脇</t>
+  </si>
+  <si>
+    <t>安楽田</t>
+  </si>
+  <si>
+    <t>田野口</t>
+  </si>
+  <si>
+    <t>岸上</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>距離</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> m</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>距離</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> m</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>距離</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> m</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>距離</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> m</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0.0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
+    <numFmt numFmtId="182" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -268,16 +393,57 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -285,15 +451,136 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -574,11 +861,616 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="6" customWidth="1"/>
+    <col min="2" max="3" width="19.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="25" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="24">
+        <v>10434.251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="24">
+        <v>1205.904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="24">
+        <v>1987.4290000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="24">
+        <v>3404.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="24">
+        <v>1099.258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="24">
+        <v>1500.8330000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="24">
+        <v>1386.537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="24">
+        <v>2142.1509999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="24">
+        <v>972.43200000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="24">
+        <v>1456.6079999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="24">
+        <v>742.10500000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="24">
+        <v>860.73800000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="24">
+        <v>2027.1389999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="9"/>
+      <c r="B15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="24">
+        <v>679.41200000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="D16" s="25">
+        <f>SUM(D2:D15)</f>
+        <v>29899.287000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="13"/>
+      <c r="B19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="24">
+        <v>17395.061000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="13"/>
+      <c r="B20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="24">
+        <v>2419.7429999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="13"/>
+      <c r="B21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="24">
+        <v>1394.9179999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="13"/>
+      <c r="B22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="24">
+        <v>1183.0139999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="13"/>
+      <c r="B23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="24">
+        <v>1226.481</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="13"/>
+      <c r="B24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="24">
+        <v>1127.3620000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="13"/>
+      <c r="B25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="24">
+        <v>637.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="13"/>
+      <c r="B26" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="24">
+        <v>1200.6130000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="13"/>
+      <c r="B27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="24">
+        <v>1804.51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="13"/>
+      <c r="B28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="24">
+        <v>2003.1089999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="13"/>
+      <c r="B29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="24">
+        <v>4281.2510000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="14"/>
+      <c r="B30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="24">
+        <v>6523.18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="D31" s="25">
+        <f>SUM(D19:D30)</f>
+        <v>41196.492000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="17"/>
+      <c r="B34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="24">
+        <v>7123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="17"/>
+      <c r="B35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="24">
+        <v>1347.7449999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="17"/>
+      <c r="B36" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="24">
+        <v>1017.9109999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="17"/>
+      <c r="B37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="24">
+        <v>1081.8420000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="17"/>
+      <c r="B38" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="24">
+        <v>3231.3890000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="17"/>
+      <c r="B39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="24">
+        <v>1794.992</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="17"/>
+      <c r="B40" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="24">
+        <v>2690.498</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="17"/>
+      <c r="B41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="24">
+        <v>1989.64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="17"/>
+      <c r="B42" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="24">
+        <v>1935.079</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="17"/>
+      <c r="B43" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="24">
+        <v>1415.472</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="18"/>
+      <c r="B44" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="24">
+        <v>9109.1110000000008</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="D45" s="25">
+        <f>SUM(D34:D44)</f>
+        <v>32736.679000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="21"/>
+      <c r="B48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="24">
+        <v>3289.9989999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="21"/>
+      <c r="B49" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="24">
+        <v>2786.04</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="21"/>
+      <c r="B50" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="24">
+        <v>1477.27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="22"/>
+      <c r="B51" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="24">
+        <v>3787.6379999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="D52" s="25">
+        <f>SUM(D48:D51)</f>
+        <v>11340.947</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A15"/>
+    <mergeCell ref="A18:A30"/>
+    <mergeCell ref="A33:A44"/>
+    <mergeCell ref="A47:A51"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"ＭＳ Ｐゴシック,標準"通院バス路線距離標&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;L&amp;"ＭＳ Ｐゴシック,標準"多可赤十字病院</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -588,7 +1480,7 @@
     <col min="7" max="1023" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -608,7 +1500,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -629,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -651,7 +1543,7 @@
         <v>14.318747999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
@@ -673,7 +1565,7 @@
         <v>17.947457333333332</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
@@ -695,7 +1587,7 @@
         <v>22.271991999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -717,7 +1609,7 @@
         <v>24.876826666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>5</v>
       </c>
@@ -739,7 +1631,7 @@
         <v>28.152481333333331</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>6</v>
       </c>
@@ -761,7 +1653,7 @@
         <v>31.192911999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>7</v>
       </c>
@@ -783,7 +1675,7 @@
         <v>39.284492</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>8</v>
       </c>
@@ -805,7 +1697,7 @@
         <v>41.85646666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>9</v>
       </c>
@@ -827,7 +1719,7 @@
         <v>45.442730666666669</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>10</v>
       </c>
@@ -849,7 +1741,7 @@
         <v>50.895241333333338</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>11</v>
       </c>
@@ -871,7 +1763,7 @@
         <v>53.270716000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>12</v>
       </c>
@@ -893,7 +1785,7 @@
         <v>57.056376000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>13</v>
       </c>
@@ -915,7 +1807,7 @@
         <v>60.936136000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>99</v>
       </c>
@@ -937,7 +1829,7 @@
         <v>64.226005333333333</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:6">
       <c r="D17" s="2">
         <f>SUM(D2:D16)</f>
         <v>40759.648000000001</v>
@@ -951,7 +1843,7 @@
         <v>69.346197333333336</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:6">
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
@@ -959,7 +1851,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:6">
       <c r="C20" s="1" t="s">
         <v>33</v>
       </c>
@@ -974,412 +1866,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="1023" width="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3">
-        <v>13535.527</v>
-      </c>
-      <c r="E2" s="2">
-        <f>(D2/(D$19*1000/3600)+D$20)/60</f>
-        <v>19.047369333333332</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1203.626</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E16" si="0">(D3/(D$19*1000/3600)+D$20)/60</f>
-        <v>2.6048346666666666</v>
-      </c>
-      <c r="F3" s="2">
-        <f>F2+E2</f>
-        <v>19.047369333333332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1072.5070000000001</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>2.4300093333333335</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" ref="F4:F17" si="1">F3+E3</f>
-        <v>21.652203999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1530.3230000000001</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0404306666666665</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" si="1"/>
-        <v>24.082213333333332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1754.4010000000001</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3392013333333335</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="1"/>
-        <v>27.122643999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1971.5319999999999</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>3.6287093333333331</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="1"/>
-        <v>30.461845333333329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3">
-        <v>7853.902</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>11.471869333333332</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="1"/>
-        <v>34.090554666666662</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1178.981</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>2.5719746666666667</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="1"/>
-        <v>45.562423999999993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1939.6980000000001</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>3.5862639999999999</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="1"/>
-        <v>48.134398666666662</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="3">
-        <v>3339.3829999999998</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>5.4525106666666669</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="1"/>
-        <v>51.720662666666662</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1031.606</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>2.3754746666666668</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="1"/>
-        <v>57.173173333333331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2089.2449999999999</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>3.78566</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="1"/>
-        <v>59.548648</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2159.8200000000002</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>3.8797600000000001</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="1"/>
-        <v>63.334308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1717.402</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>3.2898693333333333</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="1"/>
-        <v>67.214067999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>99</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="3">
-        <v>3090.1439999999998</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>5.1201919999999994</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="1"/>
-        <v>70.503937333333326</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D17" s="3">
-        <f>SUM(D2:D16)</f>
-        <v>45468.097000000002</v>
-      </c>
-      <c r="E17" s="3">
-        <f>SUM(E2:E16)</f>
-        <v>75.624129333333329</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="1"/>
-        <v>75.624129333333329</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="3">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:E16">
-    <sortCondition ref="A2:A16"/>
-  </sortState>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1391,7 +1877,413 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="1023" width="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3">
+        <v>13535.527</v>
+      </c>
+      <c r="E2" s="2">
+        <f>(D2/(D$19*1000/3600)+D$20)/60</f>
+        <v>19.047369333333332</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1203.626</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E16" si="0">(D3/(D$19*1000/3600)+D$20)/60</f>
+        <v>2.6048346666666666</v>
+      </c>
+      <c r="F3" s="2">
+        <f>F2+E2</f>
+        <v>19.047369333333332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1072.5070000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4300093333333335</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F17" si="1">F3+E3</f>
+        <v>21.652203999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1530.3230000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0404306666666665</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>24.082213333333332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1754.4010000000001</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3392013333333335</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>27.122643999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1971.5319999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6287093333333331</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>30.461845333333329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>7853.902</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>11.471869333333332</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>34.090554666666662</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1178.981</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5719746666666667</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>45.562423999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1939.6980000000001</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5862639999999999</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>48.134398666666662</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3339.3829999999998</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>5.4525106666666669</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>51.720662666666662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1031.606</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3754746666666668</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>57.173173333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2089.2449999999999</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>3.78566</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>59.548648</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2159.8200000000002</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8797600000000001</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>63.334308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1717.402</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2898693333333333</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>67.214067999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3090.1439999999998</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>5.1201919999999994</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="1"/>
+        <v>70.503937333333326</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="D17" s="3">
+        <f>SUM(D2:D16)</f>
+        <v>45468.097000000002</v>
+      </c>
+      <c r="E17" s="3">
+        <f>SUM(E2:E16)</f>
+        <v>75.624129333333329</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="1"/>
+        <v>75.624129333333329</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="3">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E16">
+    <sortCondition ref="A2:A16"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -1400,7 +2292,7 @@
     <col min="7" max="1020" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1420,7 +2312,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1441,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1463,7 +2355,7 @@
         <v>6.3194733333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1485,7 +2377,7 @@
         <v>11.371166666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1507,7 +2399,7 @@
         <v>14.16816</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1529,7 +2421,7 @@
         <v>16.525374666666668</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1551,7 +2443,7 @@
         <v>22.169961333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1573,7 +2465,7 @@
         <v>25.563283999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1595,7 +2487,7 @@
         <v>30.150614666666666</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1617,7 +2509,7 @@
         <v>33.803468000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1639,7 +2531,7 @@
         <v>37.383573333333338</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1661,7 +2553,7 @@
         <v>40.270869333333337</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1683,7 +2575,7 @@
         <v>44.704304000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1705,7 +2597,7 @@
         <v>51.521280000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1727,7 +2619,7 @@
         <v>56.236000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>99</v>
       </c>
@@ -1749,7 +2641,7 @@
         <v>59.205693333333336</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:6">
       <c r="D17" s="2">
         <f>SUM(D2:D16)</f>
         <v>37691.908000000003</v>
@@ -1763,7 +2655,7 @@
         <v>65.255877333333331</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:6">
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
@@ -1771,7 +2663,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:6">
       <c r="C20" s="1" t="s">
         <v>33</v>
       </c>
